--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>Website</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Messenger</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Messenger Username</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Site Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,10 +521,8 @@
           <t>chinnu123@gmail.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>8129985396</t>
-        </is>
+      <c r="E2" t="n">
+        <v>8129985396</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -534,6 +547,308 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>priya00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>priya00@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Player account</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>fvdhyfvg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>gdf</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Aso</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>priya00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>priya00@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Player account</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>hfgbf</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>dcee</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>priya00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Francis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>priya00@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Player account</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nfgcng</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>dgxcf</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gopika123</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gopika</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gopika123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Player account</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>dfcsd</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>WhatsApp</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>efsf</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>anwar123</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>anwar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>anwar123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Player account</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>edfdsdf</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/app/register1/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Skype</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
         </is>
       </c>
     </row>
